--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1558043.751444175</v>
+        <v>1557433.991387121</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17657175.71523436</v>
+        <v>17657175.71523435</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230361.9932825533</v>
+        <v>230361.9932825537</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>200.4002931547669</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -715,10 +715,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>101.5548625501678</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -825,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>186.5047028540793</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>26.07871976098082</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>90.44211996154365</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -910,10 +910,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>9.498437594267333</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1062,10 +1062,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>110.2564737593037</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>118.1849163228609</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>417.2307129546712</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>146.0193143068389</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>128.0334141325988</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1341,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>123.8150572874498</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T11" t="n">
         <v>217.2590655368476</v>
@@ -1530,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>18.94930522094155</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>156.56410959728</v>
@@ -1587,10 +1587,10 @@
         <v>275.645275292109</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>251.8495432023132</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800581</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948838</v>
       </c>
       <c r="G14" t="n">
         <v>397.2450776617479</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T14" t="n">
         <v>217.2590655368476</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>18.86588296238315</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H16" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.56410959728</v>
+        <v>78.87258048141338</v>
       </c>
       <c r="T16" t="n">
         <v>243.1546752508501</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T17" t="n">
         <v>217.2590655368476</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864818</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2019,7 +2019,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H19" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.56410959728</v>
+        <v>78.87258048141338</v>
       </c>
       <c r="T19" t="n">
-        <v>9.108788804181508</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U19" t="n">
         <v>275.645275292109</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T20" t="n">
         <v>217.2590655368476</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>67.776920564186</v>
+        <v>86.18158324108965</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>156.56410959728</v>
@@ -2326,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932883</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T23" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6189776240546</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.8731123569568</v>
+        <v>86.18158324108965</v>
       </c>
       <c r="H25" t="n">
-        <v>93.80424073902772</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>156.56410959728</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T26" t="n">
         <v>217.2590655368476</v>
@@ -2724,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>97.24845438199424</v>
       </c>
       <c r="G28" t="n">
         <v>163.8731123569568</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>78.87258048141294</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T28" t="n">
         <v>243.1546752508501</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T29" t="n">
-        <v>217.259065536848</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U29" t="n">
         <v>256.6189776240556</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2967,10 +2967,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H31" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.108788804181184</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.56410959728</v>
+        <v>78.87258048141338</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U31" t="n">
         <v>275.645275292109</v>
@@ -3046,7 +3046,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H32" t="n">
-        <v>284.8176194334632</v>
+        <v>284.8176194334636</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T32" t="n">
         <v>217.2590655368476</v>
@@ -3094,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3195,13 +3195,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>90.36889459590301</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>86.18158324108921</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T35" t="n">
         <v>217.2590655368476</v>
@@ -3441,10 +3441,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H37" t="n">
-        <v>137.9496946538981</v>
+        <v>78.87258048141305</v>
       </c>
       <c r="I37" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>198.8527376505233</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3520,7 +3520,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H38" t="n">
-        <v>284.8176194334654</v>
+        <v>284.8176194334636</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T38" t="n">
         <v>217.2590655368476</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>67.77692056418594</v>
+        <v>86.18158324108965</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>156.56410959728</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T41" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240555</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430791</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3903,19 +3903,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>116.6384128125042</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8731123569568</v>
+        <v>67.77692056418644</v>
       </c>
       <c r="H43" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S43" t="n">
         <v>156.56410959728</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773022</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>79.65301062268192</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T44" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240546</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>78.87258048141294</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T46" t="n">
         <v>243.1546752508501</v>
       </c>
       <c r="U46" t="n">
-        <v>275.645275292109</v>
+        <v>197.953746176242</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.4212598210011</v>
+        <v>729.203080354842</v>
       </c>
       <c r="C2" t="n">
-        <v>810.3191910448285</v>
+        <v>695.1010115786694</v>
       </c>
       <c r="D2" t="n">
-        <v>778.4498102596771</v>
+        <v>266.5193373159377</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>236.784996514637</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4342,16 +4342,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4363,19 +4363,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1290.883659894699</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1290.883659894699</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1290.068609346137</v>
+        <v>770.8100258395735</v>
       </c>
       <c r="X2" t="n">
-        <v>1274.966549965851</v>
+        <v>755.7079664592883</v>
       </c>
       <c r="Y2" t="n">
-        <v>866.6804262655048</v>
+        <v>751.4622467993457</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6525504900546</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C4" t="n">
-        <v>605.0908389732796</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D4" t="n">
-        <v>439.2128461748023</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1146.964903885608</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1241.49757362275</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W4" t="n">
-        <v>969.4711692090418</v>
+        <v>1138.201517537139</v>
       </c>
       <c r="X4" t="n">
-        <v>969.4711692090418</v>
+        <v>1111.859376364431</v>
       </c>
       <c r="Y4" t="n">
-        <v>969.4711692090418</v>
+        <v>884.4397056785397</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.680625966315</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035833</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D5" t="n">
-        <v>386.2295709184319</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E5" t="n">
-        <v>356.4952301171311</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F5" t="n">
-        <v>332.6682045667429</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
         <v>33.94366860160834</v>
@@ -4570,25 +4570,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M5" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="N5" t="n">
-        <v>1277.130531135514</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O5" t="n">
-        <v>1697.183430080417</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
@@ -4597,22 +4597,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>653.1182849437999</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9397924108188</v>
+        <v>244.8321612434534</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
         <v>1159.957753041174</v>
@@ -4664,7 +4664,7 @@
         <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>766.5367714259833</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C7" t="n">
-        <v>593.9750599092082</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D7" t="n">
-        <v>428.0970671107308</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F7" t="n">
         <v>428.0970671107308</v>
@@ -4731,13 +4731,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4755,22 +4755,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1585.813254565969</v>
       </c>
       <c r="W7" t="n">
-        <v>885.9154747824084</v>
+        <v>1585.813254565969</v>
       </c>
       <c r="X7" t="n">
-        <v>766.5367714259833</v>
+        <v>1340.421499899382</v>
       </c>
       <c r="Y7" t="n">
-        <v>766.5367714259833</v>
+        <v>1113.00182921349</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>844.0044704481411</v>
+        <v>1351.042333103999</v>
       </c>
       <c r="C8" t="n">
-        <v>809.9024016719685</v>
+        <v>1316.940264327826</v>
       </c>
       <c r="D8" t="n">
-        <v>778.0330208868171</v>
+        <v>1285.070883542675</v>
       </c>
       <c r="E8" t="n">
-        <v>748.2986800855164</v>
+        <v>863.6257189419966</v>
       </c>
       <c r="F8" t="n">
-        <v>724.4716545351282</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1549.689173204823</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1290.466870521839</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V8" t="n">
-        <v>1290.466870521839</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W8" t="n">
-        <v>885.6114159328727</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X8" t="n">
-        <v>870.5093565525874</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y8" t="n">
-        <v>866.2636368926449</v>
+        <v>1373.301499548503</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608.9708499240651</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C10" t="n">
-        <v>608.9708499240651</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D10" t="n">
-        <v>608.9708499240651</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E10" t="n">
-        <v>439.2128461748023</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G10" t="n">
         <v>262.5057921365585</v>
@@ -4965,22 +4965,22 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>269.215608100497</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>269.215608100497</v>
       </c>
       <c r="M10" t="n">
-        <v>930.0072868842942</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4989,25 +4989,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V10" t="n">
-        <v>983.6892855326716</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W10" t="n">
-        <v>983.6892855326716</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="X10" t="n">
-        <v>738.2975308660841</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="Y10" t="n">
-        <v>738.2975308660841</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C11" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E11" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F11" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G11" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H11" t="n">
         <v>102.1422344933241</v>
@@ -5050,43 +5050,43 @@
         <v>1427.452985796848</v>
       </c>
       <c r="M11" t="n">
-        <v>2608.624889715317</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N11" t="n">
-        <v>2633.139311075868</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O11" t="n">
-        <v>3519.925986636534</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P11" t="n">
-        <v>4367.992376873088</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q11" t="n">
-        <v>4929.327483119182</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R11" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S11" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T11" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U11" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V11" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W11" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X11" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y11" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="12">
@@ -5099,46 +5099,46 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C12" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D12" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E12" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F12" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G12" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H12" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I12" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J12" t="n">
-        <v>436.1764333685289</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K12" t="n">
-        <v>1128.780024198913</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L12" t="n">
-        <v>1144.740799193458</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M12" t="n">
-        <v>1163.366270790971</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N12" t="n">
-        <v>1182.484703199849</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O12" t="n">
-        <v>1199.974333765026</v>
+        <v>545.3044868551062</v>
       </c>
       <c r="P12" t="n">
-        <v>1214.011304206648</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
         <v>1641.145501977371</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.5085325195032</v>
+        <v>1178.687535441155</v>
       </c>
       <c r="C13" t="n">
-        <v>836.3678201751178</v>
+        <v>1006.12582392438</v>
       </c>
       <c r="D13" t="n">
-        <v>670.4898273766405</v>
+        <v>840.2478311259031</v>
       </c>
       <c r="E13" t="n">
-        <v>670.4898273766405</v>
+        <v>670.4898273766404</v>
       </c>
       <c r="F13" t="n">
-        <v>493.7827733383967</v>
+        <v>493.7827733383966</v>
       </c>
       <c r="G13" t="n">
-        <v>328.2543770182384</v>
+        <v>328.2543770182383</v>
       </c>
       <c r="H13" t="n">
-        <v>188.91125110521</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I13" t="n">
         <v>102.1422344933241</v>
@@ -5205,10 +5205,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L13" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M13" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N13" t="n">
         <v>1823.203308416962</v>
@@ -5217,34 +5217,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P13" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q13" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R13" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S13" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T13" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U13" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V13" t="n">
-        <v>1792.164981004678</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="W13" t="n">
-        <v>1520.13857659097</v>
+        <v>1843.317579512622</v>
       </c>
       <c r="X13" t="n">
-        <v>1274.746821924382</v>
+        <v>1597.925824846034</v>
       </c>
       <c r="Y13" t="n">
-        <v>1047.32715123849</v>
+        <v>1370.506154160143</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C14" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D14" t="n">
         <v>1652.736628213913</v>
@@ -5275,7 +5275,7 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I14" t="n">
-        <v>107.030376497994</v>
+        <v>107.0303764979941</v>
       </c>
       <c r="J14" t="n">
         <v>553.9456687731839</v>
@@ -5284,13 +5284,13 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L14" t="n">
-        <v>2502.512952049707</v>
+        <v>2467.959557054137</v>
       </c>
       <c r="M14" t="n">
-        <v>2526.637020757626</v>
+        <v>2492.083625762056</v>
       </c>
       <c r="N14" t="n">
-        <v>2551.151442118177</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O14" t="n">
         <v>3519.925986636533</v>
@@ -5357,28 +5357,28 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J15" t="n">
-        <v>430.3611275969465</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>1122.964718427331</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L15" t="n">
-        <v>1138.925493421876</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M15" t="n">
-        <v>1157.550965019388</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N15" t="n">
-        <v>1176.669397428267</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.159027993443</v>
+        <v>545.3044868551062</v>
       </c>
       <c r="P15" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q15" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R15" t="n">
         <v>1762.882278270333</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3182.723280357377</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C16" t="n">
-        <v>3010.161568840602</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D16" t="n">
-        <v>2844.283576042125</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E16" t="n">
-        <v>2674.525572292862</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F16" t="n">
-        <v>2655.469124856112</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G16" t="n">
-        <v>2655.469124856112</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H16" t="n">
-        <v>2516.125998943083</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I16" t="n">
-        <v>2429.356982331197</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J16" t="n">
-        <v>2520.293722469984</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K16" t="n">
-        <v>2802.212156797962</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L16" t="n">
-        <v>3229.584347559929</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M16" t="n">
-        <v>3698.728584924506</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N16" t="n">
-        <v>4150.418056254836</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O16" t="n">
-        <v>4578.798053935968</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P16" t="n">
-        <v>4933.758498038159</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q16" t="n">
-        <v>5107.111724666205</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R16" t="n">
-        <v>5088.521156305697</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S16" t="n">
-        <v>4930.375591055919</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T16" t="n">
-        <v>4684.764807974252</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U16" t="n">
-        <v>4406.335236972121</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V16" t="n">
-        <v>4119.379728842552</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W16" t="n">
-        <v>3847.353324428844</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X16" t="n">
-        <v>3601.961569762256</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y16" t="n">
-        <v>3374.541899076365</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C17" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E17" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F17" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G17" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H17" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I17" t="n">
-        <v>107.030376497994</v>
+        <v>107.0303764979941</v>
       </c>
       <c r="J17" t="n">
         <v>553.9456687731839</v>
@@ -5521,37 +5521,37 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L17" t="n">
-        <v>2467.959557054137</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M17" t="n">
-        <v>2492.083625762056</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N17" t="n">
-        <v>2516.598047122607</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O17" t="n">
-        <v>3519.925986636533</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P17" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R17" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S17" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T17" t="n">
-        <v>4807.200536626276</v>
+        <v>4807.200536626277</v>
       </c>
       <c r="U17" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V17" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W17" t="n">
         <v>3780.517043461989</v>
@@ -5560,7 +5560,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y17" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="18">
@@ -5573,19 +5573,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C18" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D18" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E18" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F18" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G18" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H18" t="n">
         <v>102.1422344933241</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.91851882927</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C19" t="n">
-        <v>919.3568073124947</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D19" t="n">
-        <v>753.4788145140174</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E19" t="n">
-        <v>583.7208107647547</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F19" t="n">
-        <v>407.0137567265109</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G19" t="n">
-        <v>241.4853604063525</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H19" t="n">
         <v>102.1422344933241</v>
@@ -5673,16 +5673,16 @@
         <v>102.1422344933241</v>
       </c>
       <c r="J19" t="n">
-        <v>193.0789746321109</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K19" t="n">
         <v>474.9974089600885</v>
       </c>
       <c r="L19" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M19" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N19" t="n">
         <v>1823.203308416962</v>
@@ -5691,34 +5691,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P19" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q19" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R19" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S19" t="n">
-        <v>2603.160843218045</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T19" t="n">
-        <v>2593.960046446144</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U19" t="n">
-        <v>2315.530475444014</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V19" t="n">
-        <v>2028.574967314445</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W19" t="n">
-        <v>1756.548562900736</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.156808234149</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y19" t="n">
-        <v>1283.737137548257</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C20" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E20" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F20" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G20" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H20" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I20" t="n">
-        <v>107.030376497994</v>
+        <v>107.0303764979941</v>
       </c>
       <c r="J20" t="n">
         <v>553.9456687731839</v>
@@ -5758,46 +5758,46 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L20" t="n">
-        <v>2502.512952049707</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M20" t="n">
-        <v>2661.237690515113</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N20" t="n">
-        <v>2685.752111875664</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O20" t="n">
-        <v>3689.08005138959</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P20" t="n">
-        <v>4537.146441626143</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q20" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R20" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S20" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T20" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U20" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V20" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W20" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X20" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y20" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="21">
@@ -5810,49 +5810,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C21" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D21" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E21" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F21" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G21" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H21" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I21" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J21" t="n">
-        <v>436.1764333685289</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K21" t="n">
-        <v>448.0465041285361</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L21" t="n">
-        <v>1138.925493421876</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M21" t="n">
-        <v>1157.550965019388</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N21" t="n">
-        <v>1176.669397428267</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P21" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q21" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R21" t="n">
         <v>1762.882278270333</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>855.5085325195032</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C22" t="n">
-        <v>682.9468210027281</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D22" t="n">
-        <v>517.0688282042508</v>
+        <v>535.6593965647596</v>
       </c>
       <c r="E22" t="n">
-        <v>347.3108244549881</v>
+        <v>365.9013928154969</v>
       </c>
       <c r="F22" t="n">
-        <v>170.6037704167443</v>
+        <v>189.1943387772531</v>
       </c>
       <c r="G22" t="n">
         <v>102.1422344933241</v>
@@ -5910,16 +5910,16 @@
         <v>102.1422344933241</v>
       </c>
       <c r="J22" t="n">
-        <v>193.0789746321109</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K22" t="n">
         <v>474.9974089600885</v>
       </c>
       <c r="L22" t="n">
-        <v>902.3695997220552</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M22" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N22" t="n">
         <v>1823.203308416962</v>
@@ -5928,34 +5928,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P22" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q22" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R22" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S22" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T22" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U22" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V22" t="n">
-        <v>1792.164981004678</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W22" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X22" t="n">
-        <v>1274.746821924382</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y22" t="n">
-        <v>1047.32715123849</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C23" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E23" t="n">
         <v>1218.961883372208</v>
@@ -5986,40 +5986,40 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I23" t="n">
-        <v>107.030376497994</v>
+        <v>107.0303764979941</v>
       </c>
       <c r="J23" t="n">
-        <v>519.3922737776142</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.218789664405</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L23" t="n">
-        <v>2467.959557054137</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M23" t="n">
-        <v>2492.083625762056</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N23" t="n">
-        <v>2516.598047122607</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O23" t="n">
-        <v>3519.925986636533</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P23" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q23" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R23" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S23" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T23" t="n">
-        <v>4807.200536626276</v>
+        <v>4807.200536626277</v>
       </c>
       <c r="U23" t="n">
         <v>4547.98944811713</v>
@@ -6034,7 +6034,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y23" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="24">
@@ -6047,19 +6047,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C24" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D24" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E24" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F24" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G24" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H24" t="n">
         <v>102.1422344933241</v>
@@ -6071,19 +6071,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K24" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L24" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M24" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N24" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O24" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551062</v>
       </c>
       <c r="P24" t="n">
         <v>1091.023220340725</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3374.541899076365</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C25" t="n">
-        <v>3201.980187559589</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D25" t="n">
-        <v>3036.102194761112</v>
+        <v>535.6593965647596</v>
       </c>
       <c r="E25" t="n">
-        <v>2866.344191011849</v>
+        <v>365.9013928154969</v>
       </c>
       <c r="F25" t="n">
-        <v>2689.637136973606</v>
+        <v>189.1943387772531</v>
       </c>
       <c r="G25" t="n">
-        <v>2524.108740653448</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H25" t="n">
-        <v>2429.356982331197</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I25" t="n">
-        <v>2429.356982331197</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J25" t="n">
-        <v>2520.293722469984</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K25" t="n">
-        <v>2802.212156797962</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L25" t="n">
-        <v>3229.584347559929</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M25" t="n">
-        <v>3698.728584924506</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N25" t="n">
-        <v>4150.418056254836</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O25" t="n">
-        <v>4578.798053935968</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P25" t="n">
-        <v>4933.758498038159</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q25" t="n">
-        <v>5107.111724666205</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R25" t="n">
-        <v>5088.521156305697</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S25" t="n">
-        <v>4930.375591055919</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T25" t="n">
-        <v>4684.764807974252</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U25" t="n">
-        <v>4406.335236972121</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V25" t="n">
-        <v>4119.379728842552</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W25" t="n">
-        <v>3847.353324428844</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X25" t="n">
-        <v>3601.961569762256</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y25" t="n">
-        <v>3374.541899076365</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="26">
@@ -6232,13 +6232,13 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L26" t="n">
-        <v>2502.512952049707</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M26" t="n">
-        <v>2526.637020757626</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N26" t="n">
-        <v>2551.151442118177</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O26" t="n">
         <v>3519.925986636534</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3951.744068857806</v>
+        <v>607.5146224619331</v>
       </c>
       <c r="C27" t="n">
-        <v>3845.287607694449</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D27" t="n">
-        <v>3750.197318841002</v>
+        <v>405.9678724451286</v>
       </c>
       <c r="E27" t="n">
-        <v>3656.076904167955</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F27" t="n">
-        <v>3572.693065784117</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G27" t="n">
-        <v>3487.38297744996</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H27" t="n">
-        <v>3446.371680889198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I27" t="n">
-        <v>3474.966251609643</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J27" t="n">
-        <v>3806.46955292486</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K27" t="n">
-        <v>4350.021386728865</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L27" t="n">
-        <v>4365.982161723409</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M27" t="n">
-        <v>4384.607633320922</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N27" t="n">
-        <v>4403.7260657298</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O27" t="n">
-        <v>4421.215696294978</v>
+        <v>545.3044868551062</v>
       </c>
       <c r="P27" t="n">
-        <v>4435.252666736599</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q27" t="n">
-        <v>4985.374948373245</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R27" t="n">
-        <v>5107.111724666206</v>
+        <v>1762.882278270333</v>
       </c>
       <c r="S27" t="n">
-        <v>5045.049405217908</v>
+        <v>1700.819958822035</v>
       </c>
       <c r="T27" t="n">
-        <v>4915.173069821698</v>
+        <v>1570.943623425825</v>
       </c>
       <c r="U27" t="n">
-        <v>4738.841457124276</v>
+        <v>1394.612010728402</v>
       </c>
       <c r="V27" t="n">
-        <v>4539.723939186275</v>
+        <v>1195.494492790401</v>
       </c>
       <c r="W27" t="n">
-        <v>4354.401184919469</v>
+        <v>1010.171738523595</v>
       </c>
       <c r="X27" t="n">
-        <v>4199.533749158349</v>
+        <v>855.3043027624755</v>
       </c>
       <c r="Y27" t="n">
-        <v>4073.04796993757</v>
+        <v>728.8185235416962</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.5753929162413</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C28" t="n">
-        <v>780.0136813994662</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D28" t="n">
-        <v>614.1356886009889</v>
+        <v>535.6593965647596</v>
       </c>
       <c r="E28" t="n">
-        <v>444.3776848517263</v>
+        <v>365.9013928154969</v>
       </c>
       <c r="F28" t="n">
         <v>267.6706308134825</v>
@@ -6390,10 +6390,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L28" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M28" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N28" t="n">
         <v>1823.203308416962</v>
@@ -6402,7 +6402,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P28" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q28" t="n">
         <v>2779.896976828331</v>
@@ -6411,25 +6411,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.227703614783</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.616920533116</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.187349530986</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.231841401416</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.205436987708</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.81368232112</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.394011635228</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="29">
@@ -6539,31 +6539,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I30" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J30" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K30" t="n">
-        <v>804.221699232701</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L30" t="n">
-        <v>1138.925493421876</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M30" t="n">
-        <v>1157.550965019388</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N30" t="n">
-        <v>1176.669397428267</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P30" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q30" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R30" t="n">
         <v>1762.882278270333</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1101.11931560117</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C31" t="n">
-        <v>928.5576040843949</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D31" t="n">
-        <v>762.6796112859176</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E31" t="n">
-        <v>592.9216075366548</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F31" t="n">
-        <v>416.2145534984111</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G31" t="n">
-        <v>250.6861571782527</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H31" t="n">
-        <v>111.3430312652243</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I31" t="n">
         <v>102.1422344933241</v>
@@ -6627,10 +6627,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L31" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M31" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N31" t="n">
         <v>1823.203308416962</v>
@@ -6639,34 +6639,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P31" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q31" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R31" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S31" t="n">
-        <v>2603.160843218045</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T31" t="n">
-        <v>2603.160843218045</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U31" t="n">
-        <v>2324.731272215914</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V31" t="n">
-        <v>2037.775764086345</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W31" t="n">
-        <v>1765.749359672637</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X31" t="n">
-        <v>1520.357605006049</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y31" t="n">
-        <v>1292.937934320157</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C32" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G32" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776308</v>
       </c>
       <c r="H32" t="n">
         <v>102.1422344933241</v>
@@ -6706,22 +6706,22 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L32" t="n">
-        <v>2502.512952049707</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M32" t="n">
-        <v>3683.684855968177</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N32" t="n">
-        <v>3708.199277328727</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O32" t="n">
-        <v>4235.578837348186</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P32" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q32" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R32" t="n">
         <v>5107.111724666206</v>
@@ -6745,7 +6745,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y32" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I33" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J33" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K33" t="n">
-        <v>804.221699232701</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L33" t="n">
-        <v>820.182474227246</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M33" t="n">
-        <v>838.8079458247585</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N33" t="n">
-        <v>1717.408336060342</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O33" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P33" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q33" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R33" t="n">
         <v>1762.882278270333</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.0991008800115</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C34" t="n">
-        <v>701.5373893632365</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D34" t="n">
-        <v>535.6593965647592</v>
+        <v>535.6593965647596</v>
       </c>
       <c r="E34" t="n">
-        <v>365.9013928154964</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F34" t="n">
-        <v>189.1943387772526</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G34" t="n">
         <v>102.1422344933241</v>
@@ -6864,10 +6864,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L34" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M34" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N34" t="n">
         <v>1823.203308416962</v>
@@ -6876,7 +6876,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P34" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q34" t="n">
         <v>2779.896976828331</v>
@@ -6888,19 +6888,19 @@
         <v>2621.751411578553</v>
       </c>
       <c r="T34" t="n">
-        <v>2376.140628496886</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U34" t="n">
         <v>2097.711057494756</v>
       </c>
       <c r="V34" t="n">
-        <v>1810.755549365186</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W34" t="n">
         <v>1538.729144951478</v>
       </c>
       <c r="X34" t="n">
-        <v>1293.33739028489</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y34" t="n">
         <v>1065.917719598999</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E35" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0944537814171</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G35" t="n">
         <v>389.8367995776307</v>
@@ -6937,28 +6937,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J35" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K35" t="n">
-        <v>136.1672052488784</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L35" t="n">
-        <v>1232.907972638611</v>
+        <v>2291.091388413894</v>
       </c>
       <c r="M35" t="n">
-        <v>2414.079876557081</v>
+        <v>3472.263292332363</v>
       </c>
       <c r="N35" t="n">
-        <v>3564.325281354079</v>
+        <v>3496.777713692914</v>
       </c>
       <c r="O35" t="n">
-        <v>4235.578837348186</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P35" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q35" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R35" t="n">
         <v>5107.111724666206</v>
@@ -6973,16 +6973,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V35" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W35" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X35" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y35" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I36" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J36" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K36" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L36" t="n">
-        <v>139.4489541568686</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M36" t="n">
-        <v>1356.799259846881</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N36" t="n">
-        <v>1375.917692255759</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O36" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P36" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q36" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R36" t="n">
         <v>1762.882278270333</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1178.687535441156</v>
+        <v>1032.24466612979</v>
       </c>
       <c r="C37" t="n">
-        <v>1006.125823924381</v>
+        <v>859.6829546130149</v>
       </c>
       <c r="D37" t="n">
-        <v>840.2478311259033</v>
+        <v>693.8049618145376</v>
       </c>
       <c r="E37" t="n">
-        <v>670.4898273766405</v>
+        <v>524.0469580652748</v>
       </c>
       <c r="F37" t="n">
-        <v>493.7827733383967</v>
+        <v>347.339904027031</v>
       </c>
       <c r="G37" t="n">
-        <v>328.2543770182384</v>
+        <v>181.8115077068727</v>
       </c>
       <c r="H37" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I37" t="n">
         <v>102.1422344933241</v>
@@ -7101,10 +7101,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L37" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M37" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N37" t="n">
         <v>1823.203308416962</v>
@@ -7113,34 +7113,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P37" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q37" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R37" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S37" t="n">
-        <v>2603.160843218045</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T37" t="n">
-        <v>2402.2994920559</v>
+        <v>2534.286193746665</v>
       </c>
       <c r="U37" t="n">
-        <v>2402.2994920559</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V37" t="n">
-        <v>2115.343983926331</v>
+        <v>1968.901114614965</v>
       </c>
       <c r="W37" t="n">
-        <v>1843.317579512622</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X37" t="n">
-        <v>1597.925824846035</v>
+        <v>1451.482955534669</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.506154160143</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2526.788885856048</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.646413039471</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.736628213916</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E38" t="n">
-        <v>1218.961883372211</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F38" t="n">
-        <v>791.0944537814185</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G38" t="n">
-        <v>389.8367995776326</v>
+        <v>389.8367995776308</v>
       </c>
       <c r="H38" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I38" t="n">
         <v>107.0303764979941</v>
       </c>
       <c r="J38" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K38" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L38" t="n">
-        <v>1232.907972638611</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M38" t="n">
-        <v>2414.079876557081</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N38" t="n">
-        <v>3564.325281354079</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O38" t="n">
-        <v>4567.653220868006</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P38" t="n">
-        <v>4914.491162831685</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q38" t="n">
-        <v>4929.327483119184</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R38" t="n">
-        <v>5107.111724666208</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S38" t="n">
-        <v>5026.65413817865</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T38" t="n">
-        <v>4807.200536626278</v>
+        <v>4807.200536626277</v>
       </c>
       <c r="U38" t="n">
-        <v>4547.989448117131</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V38" t="n">
-        <v>4185.372498050958</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W38" t="n">
-        <v>3780.517043461991</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X38" t="n">
-        <v>3361.374580041302</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y38" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="39">
@@ -7247,13 +7247,13 @@
         <v>143.1535310540871</v>
       </c>
       <c r="H39" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I39" t="n">
-        <v>130.7368052137692</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J39" t="n">
-        <v>462.2401065289865</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K39" t="n">
         <v>1005.791940332991</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>855.5085325195032</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C40" t="n">
-        <v>682.9468210027281</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D40" t="n">
-        <v>517.0688282042508</v>
+        <v>535.6593965647596</v>
       </c>
       <c r="E40" t="n">
-        <v>347.3108244549881</v>
+        <v>365.9013928154969</v>
       </c>
       <c r="F40" t="n">
-        <v>170.6037704167443</v>
+        <v>189.1943387772531</v>
       </c>
       <c r="G40" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I40" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J40" t="n">
         <v>193.078974632111</v>
@@ -7338,10 +7338,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L40" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M40" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N40" t="n">
         <v>1823.203308416962</v>
@@ -7350,34 +7350,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P40" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q40" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R40" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S40" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T40" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U40" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V40" t="n">
-        <v>1792.164981004678</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W40" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X40" t="n">
-        <v>1274.746821924382</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y40" t="n">
-        <v>1047.32715123849</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D41" t="n">
         <v>1652.736628213913</v>
@@ -7399,55 +7399,55 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F41" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814157</v>
       </c>
       <c r="G41" t="n">
         <v>389.8367995776304</v>
       </c>
       <c r="H41" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I41" t="n">
         <v>107.0303764979941</v>
       </c>
       <c r="J41" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K41" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L41" t="n">
-        <v>1232.907972638611</v>
+        <v>2467.959557054137</v>
       </c>
       <c r="M41" t="n">
-        <v>1366.352642325612</v>
+        <v>2492.083625762056</v>
       </c>
       <c r="N41" t="n">
-        <v>2516.59804712261</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O41" t="n">
-        <v>3519.925986636536</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P41" t="n">
-        <v>4367.99237687309</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q41" t="n">
-        <v>4929.327483119184</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R41" t="n">
-        <v>5107.111724666208</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S41" t="n">
-        <v>5026.65413817865</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.200536626278</v>
+        <v>4807.200536626277</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.989448117131</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.372498050958</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W41" t="n">
         <v>3780.517043461989</v>
@@ -7469,43 +7469,43 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C42" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D42" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E42" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F42" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G42" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H42" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I42" t="n">
-        <v>130.7368052137692</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J42" t="n">
-        <v>462.2401065289865</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K42" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L42" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M42" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N42" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O42" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551062</v>
       </c>
       <c r="P42" t="n">
         <v>1091.023220340725</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.0991008800188</v>
+        <v>855.5085325195037</v>
       </c>
       <c r="C43" t="n">
-        <v>701.5373893632437</v>
+        <v>682.9468210027286</v>
       </c>
       <c r="D43" t="n">
-        <v>583.7208107647547</v>
+        <v>517.0688282042513</v>
       </c>
       <c r="E43" t="n">
-        <v>583.7208107647547</v>
+        <v>347.3108244549886</v>
       </c>
       <c r="F43" t="n">
-        <v>407.0137567265109</v>
+        <v>170.6037704167448</v>
       </c>
       <c r="G43" t="n">
-        <v>241.4853604063526</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H43" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I43" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J43" t="n">
-        <v>193.0789746321178</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K43" t="n">
-        <v>474.9974089600953</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L43" t="n">
-        <v>902.369599722062</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M43" t="n">
-        <v>1371.513837086639</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N43" t="n">
-        <v>1823.203308416969</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O43" t="n">
-        <v>2251.583306098101</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P43" t="n">
-        <v>2606.543750200291</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q43" t="n">
-        <v>2779.896976828338</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R43" t="n">
-        <v>2779.896976828338</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S43" t="n">
-        <v>2621.75141157856</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T43" t="n">
-        <v>2376.140628496893</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U43" t="n">
-        <v>2097.711057494763</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V43" t="n">
-        <v>1810.755549365194</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W43" t="n">
-        <v>1538.729144951485</v>
+        <v>1520.13857659097</v>
       </c>
       <c r="X43" t="n">
-        <v>1293.337390284898</v>
+        <v>1274.746821924383</v>
       </c>
       <c r="Y43" t="n">
-        <v>1065.917719599006</v>
+        <v>1047.327151238491</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2526.788885856048</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.646413039471</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D44" t="n">
         <v>1652.736628213913</v>
@@ -7642,7 +7642,7 @@
         <v>389.8367995776304</v>
       </c>
       <c r="H44" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I44" t="n">
         <v>107.0303764979941</v>
@@ -7654,46 +7654,46 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L44" t="n">
-        <v>1427.452985796848</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M44" t="n">
-        <v>2608.624889715317</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N44" t="n">
-        <v>3758.870294512315</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O44" t="n">
-        <v>4235.578837348187</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P44" t="n">
-        <v>5083.645227584741</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q44" t="n">
-        <v>5098.48154787224</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R44" t="n">
-        <v>5107.111724666208</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S44" t="n">
-        <v>5026.65413817865</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T44" t="n">
-        <v>4807.200536626278</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U44" t="n">
-        <v>4547.989448117131</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V44" t="n">
-        <v>4185.372498050958</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W44" t="n">
-        <v>3780.517043461991</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X44" t="n">
-        <v>3361.374580041302</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="45">
@@ -7706,28 +7706,28 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C45" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D45" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E45" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F45" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G45" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H45" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I45" t="n">
-        <v>130.7368052137692</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J45" t="n">
-        <v>462.2401065289865</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K45" t="n">
         <v>1005.791940332991</v>
@@ -7797,13 +7797,13 @@
         <v>267.6706308134825</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H46" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I46" t="n">
-        <v>102.1422344933242</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J46" t="n">
         <v>193.078974632111</v>
@@ -7812,10 +7812,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L46" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M46" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N46" t="n">
         <v>1823.203308416962</v>
@@ -7824,7 +7824,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P46" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q46" t="n">
         <v>2779.896976828331</v>
@@ -7833,10 +7833,10 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.227703614783</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.616920533116</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U46" t="n">
         <v>2176.187349530986</v>
@@ -7990,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8145,13 +8145,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>34.867532687005</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,22 +8300,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8379,16 +8379,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P8" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8537,7 +8537,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8613,25 +8613,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>117.6925219988882</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8698,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="O11" t="n">
-        <v>872.3620228455011</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>537.0522859030275</v>
       </c>
       <c r="Q12" t="n">
-        <v>421.9705603698517</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>955.1780520956931</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>295.6357030648206</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>537.0522859030275</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1051.016738643727</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>537.0522859030277</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9406,10 +9406,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M20" t="n">
-        <v>135.9602724823098</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L21" t="n">
-        <v>681.7355699987827</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>404.7487802599477</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>537.0522859030277</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>537.0522859030275</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9880,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>955.1780520956941</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>537.052285903028</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>537.0522859030275</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L30" t="n">
-        <v>321.9626456511413</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>509.3245323998367</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>868.163593764349</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>872.3620228455011</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>654.651801061098</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>344.9400442470535</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>330.3852793540627</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>537.0522859030275</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="M41" t="n">
-        <v>110.4248494738199</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>537.0522859030275</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,25 +11302,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>458.1416867598509</v>
+        <v>955.1780520956931</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>537.0522859030275</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>151.8867891806658</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>17.45659716725822</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>156.0741005354782</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>77.6915291158666</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I19" t="n">
         <v>85.90132644576698</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>77.6915291158666</v>
       </c>
       <c r="T19" t="n">
-        <v>234.0458864466686</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>96.09619179277077</v>
+        <v>77.69152911586711</v>
       </c>
       <c r="H22" t="n">
         <v>137.9496946538981</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.69152911586711</v>
       </c>
       <c r="H25" t="n">
-        <v>44.1454539148704</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I25" t="n">
         <v>85.90132644576698</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>77.6915291158671</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40466267690321</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S28" t="n">
-        <v>77.69152911586704</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I31" t="n">
-        <v>76.7925376415858</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>77.6915291158666</v>
       </c>
       <c r="T31" t="n">
-        <v>243.1546752508501</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>77.6915291158671</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>77.69152911586755</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>137.9496946538981</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.40466267690321</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>59.07711417248504</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T37" t="n">
-        <v>44.30193760032685</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.645275292109</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>96.09619179277082</v>
+        <v>77.69152911586711</v>
       </c>
       <c r="H40" t="n">
         <v>137.9496946538981</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>47.58080005798837</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>96.09619179277033</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I43" t="n">
         <v>85.90132644576698</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.40466267690321</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S46" t="n">
-        <v>77.69152911586704</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>77.69152911586693</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>578980.8272392959</v>
+        <v>578980.8272392957</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>578980.8272392957</v>
+        <v>578980.8272392956</v>
       </c>
     </row>
   </sheetData>
@@ -26331,16 +26331,16 @@
         <v>462410.0134333661</v>
       </c>
       <c r="H2" t="n">
-        <v>462410.0134333662</v>
+        <v>462410.0134333661</v>
       </c>
       <c r="I2" t="n">
-        <v>462410.0134333662</v>
+        <v>462410.0134333661</v>
       </c>
       <c r="J2" t="n">
         <v>462410.0134333661</v>
       </c>
       <c r="K2" t="n">
-        <v>462410.0134333662</v>
+        <v>462410.0134333663</v>
       </c>
       <c r="L2" t="n">
         <v>462410.0134333661</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>117378.5063257626</v>
       </c>
       <c r="I4" t="n">
-        <v>117378.5063257627</v>
+        <v>117378.5063257626</v>
       </c>
       <c r="J4" t="n">
         <v>117378.5063257626</v>
@@ -26478,19 +26478,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="F5" t="n">
         <v>78380.64252189652</v>
       </c>
       <c r="G5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="H5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="I5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="J5" t="n">
         <v>78380.64252189653</v>
@@ -26505,13 +26505,13 @@
         <v>78380.64252189653</v>
       </c>
       <c r="N5" t="n">
-        <v>78380.64252189656</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="O5" t="n">
-        <v>78380.64252189656</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="P5" t="n">
-        <v>78380.64252189656</v>
+        <v>78380.64252189652</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43155.40347925504</v>
+        <v>43155.40347925499</v>
       </c>
       <c r="C6" t="n">
         <v>185346.7041389648</v>
       </c>
       <c r="D6" t="n">
-        <v>185346.7041389649</v>
+        <v>185346.704138965</v>
       </c>
       <c r="E6" t="n">
-        <v>-15615.3056991709</v>
+        <v>-15634.50253194435</v>
       </c>
       <c r="F6" t="n">
-        <v>266650.8645857071</v>
+        <v>266631.6677529334</v>
       </c>
       <c r="G6" t="n">
-        <v>266650.864585707</v>
+        <v>266631.6677529334</v>
       </c>
       <c r="H6" t="n">
-        <v>266650.8645857071</v>
+        <v>266631.6677529334</v>
       </c>
       <c r="I6" t="n">
-        <v>266650.864585707</v>
+        <v>266631.6677529334</v>
       </c>
       <c r="J6" t="n">
-        <v>155636.3992407167</v>
+        <v>155617.2024079432</v>
       </c>
       <c r="K6" t="n">
-        <v>266650.8645857071</v>
+        <v>266631.6677529336</v>
       </c>
       <c r="L6" t="n">
-        <v>266650.864585707</v>
+        <v>266631.6677529334</v>
       </c>
       <c r="M6" t="n">
-        <v>54208.92190471776</v>
+        <v>54189.72507194427</v>
       </c>
       <c r="N6" t="n">
-        <v>266650.864585707</v>
+        <v>266631.6677529334</v>
       </c>
       <c r="O6" t="n">
-        <v>266650.8645857071</v>
+        <v>266631.6677529336</v>
       </c>
       <c r="P6" t="n">
-        <v>266650.864585707</v>
+        <v>266631.6677529335</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="F3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="G3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="H3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="J3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="K3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="L3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="M3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="N3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="O3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="P3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="F4" t="n">
         <v>1276.777931166551</v>
       </c>
       <c r="G4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="H4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="I4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="J4" t="n">
         <v>1276.777931166552</v>
@@ -26828,10 +26828,10 @@
         <v>1276.777931166552</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367902</v>
+        <v>34.52038105367912</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>852.4820736464471</v>
+        <v>852.4820736464469</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.4820736464471</v>
+        <v>852.4820736464469</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.4820736464471</v>
+        <v>852.4820736464469</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>223.1884621401174</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>155.0752171059854</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>97.58125019419455</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>216.8591173589408</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>331.594454818515</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>387.8854154687014</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27669,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>173.8294792889701</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>124.7529207970608</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>12.20628443861654</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>71.84724054885288</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.8670183991984</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>101.330416691583</v>
       </c>
     </row>
     <row r="11">
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30641,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.787104211980477e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30702,7 +30702,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I11" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J11" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N11" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P11" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S11" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R12" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S12" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I13" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J13" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K13" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L13" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M13" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R13" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S13" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I14" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J14" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N14" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S14" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K15" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R15" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S15" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I16" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J16" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K16" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L16" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M16" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R16" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S16" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H17" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I17" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J17" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N17" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P17" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S17" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K18" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R18" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S18" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I19" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J19" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K19" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L19" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M19" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R19" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S19" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I20" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J20" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N20" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S20" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R21" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S21" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I22" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J22" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K22" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L22" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M22" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R22" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S22" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H23" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I23" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L23" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N23" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S23" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R24" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S24" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I25" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J25" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K25" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L25" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M25" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R25" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S25" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H26" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I26" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J26" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K26" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N26" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S26" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S27" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I28" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J28" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K28" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L28" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M28" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R28" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S28" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H29" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I29" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N29" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S29" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R30" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S30" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I31" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J31" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K31" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L31" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M31" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R31" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S31" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H32" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I32" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K32" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N32" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S32" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R33" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S33" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I34" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J34" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K34" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L34" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M34" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R34" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S34" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H35" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I35" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N35" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P35" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S35" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S36" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I37" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J37" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K37" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L37" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M37" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R37" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S37" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H38" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I38" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N38" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S38" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K39" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S39" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I40" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J40" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K40" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L40" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M40" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R40" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S40" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H41" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I41" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M41" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N41" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S41" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S42" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I43" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J43" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K43" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L43" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M43" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R43" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S43" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1387754012208201</v>
+        <v>0.1387754012208205</v>
       </c>
       <c r="H44" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I44" t="n">
-        <v>5.350138655565672</v>
+        <v>5.350138655565687</v>
       </c>
       <c r="J44" t="n">
-        <v>11.77838870936559</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304291</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815459</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961534</v>
+        <v>24.36774616961542</v>
       </c>
       <c r="N44" t="n">
-        <v>24.762041778334</v>
+        <v>24.76204177833407</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244447</v>
+        <v>23.38209388244454</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480547</v>
+        <v>19.95607616480553</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858485</v>
+        <v>14.98618210858489</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937347</v>
+        <v>8.717350296937372</v>
       </c>
       <c r="S44" t="n">
-        <v>3.162344455319441</v>
+        <v>3.16234445531945</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6074893188441403</v>
+        <v>0.607489318844142</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766564</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07425138566263036</v>
+        <v>0.07425138566263056</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943511</v>
+        <v>0.7171120667943532</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805475</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257547</v>
+        <v>7.015127625257567</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398472</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M45" t="n">
-        <v>18.81360767425507</v>
+        <v>18.81360767425512</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017855</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040325</v>
+        <v>9.478124247040352</v>
       </c>
       <c r="R45" t="n">
-        <v>4.610099190527174</v>
+        <v>4.610099190527188</v>
       </c>
       <c r="S45" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2992851904559529</v>
+        <v>0.2992851904559538</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067789</v>
+        <v>0.004884959583067803</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06224986747384741</v>
+        <v>0.06224986747384759</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5534579126311165</v>
+        <v>0.5534579126311181</v>
       </c>
       <c r="I46" t="n">
-        <v>1.87202328730443</v>
+        <v>1.872023287304436</v>
       </c>
       <c r="J46" t="n">
-        <v>4.401065630401012</v>
+        <v>4.401065630401025</v>
       </c>
       <c r="K46" t="n">
-        <v>7.232302784688816</v>
+        <v>7.232302784688837</v>
       </c>
       <c r="L46" t="n">
-        <v>9.254857569702734</v>
+        <v>9.254857569702761</v>
       </c>
       <c r="M46" t="n">
-        <v>9.757949680468643</v>
+        <v>9.757949680468672</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157038</v>
+        <v>9.525927447157066</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485273</v>
+        <v>8.798735813485298</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018778</v>
+        <v>7.528838517018801</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.212577539105532</v>
+        <v>5.212577539105547</v>
       </c>
       <c r="R46" t="n">
-        <v>2.79898040477863</v>
+        <v>2.798980404778638</v>
       </c>
       <c r="S46" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2659767064791662</v>
+        <v>0.2659767064791669</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003395447316755318</v>
+        <v>0.003395447316755327</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>34.867532687005</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35099,16 +35099,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>370.2350542247758</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P8" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35257,7 +35257,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35333,25 +35333,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>150.1941962971706</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>117.6925219988882</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J11" t="n">
         <v>451.4295881567574</v>
@@ -35418,13 +35418,13 @@
         <v>21.89979912815465</v>
       </c>
       <c r="M11" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422061</v>
       </c>
       <c r="O11" t="n">
-        <v>895.7441167279458</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P11" t="n">
         <v>856.6327174106605</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805472</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J12" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K12" t="n">
-        <v>699.5995866973583</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O12" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248679</v>
       </c>
       <c r="Q12" t="n">
-        <v>431.448684616892</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
         <v>122.9664406999614</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>91.85529306948168</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K13" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L13" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M13" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N13" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O13" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P13" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q13" t="n">
         <v>175.1042693212594</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J14" t="n">
-        <v>451.4295881567575</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K14" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L14" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771882</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961566</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N14" t="n">
         <v>24.76204177833415</v>
       </c>
       <c r="O14" t="n">
-        <v>978.5601459781378</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P14" t="n">
         <v>856.6327174106605</v>
@@ -35725,31 +35725,31 @@
         <v>28.8834047681263</v>
       </c>
       <c r="J15" t="n">
-        <v>302.6508306900781</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
-        <v>699.5995866973582</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M15" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O15" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248679</v>
       </c>
       <c r="Q15" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R15" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.85529306948183</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K16" t="n">
-        <v>284.7660952807855</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L16" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M16" t="n">
         <v>473.8830680450274</v>
       </c>
       <c r="N16" t="n">
-        <v>456.2519912427579</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O16" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P16" t="n">
         <v>358.5459031335258</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J17" t="n">
-        <v>451.4295881567575</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K17" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L17" t="n">
-        <v>1072.916537771882</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M17" t="n">
         <v>24.3677461696152</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>28.8834047681263</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J18" t="n">
         <v>334.8518195103205</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.85529306948166</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K19" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L19" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M19" t="n">
         <v>473.8830680450274</v>
@@ -36056,10 +36056,10 @@
         <v>456.2519912427576</v>
       </c>
       <c r="O19" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P19" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q19" t="n">
         <v>175.1042693212594</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J20" t="n">
-        <v>451.4295881567575</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K20" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L20" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M20" t="n">
-        <v>160.328018651925</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N20" t="n">
         <v>24.76204177833415</v>
@@ -36144,7 +36144,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J21" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465377</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L21" t="n">
-        <v>697.8575649427675</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
         <v>18.81360767425508</v>
@@ -36223,7 +36223,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R21" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.85529306948166</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K22" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L22" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M22" t="n">
         <v>473.8830680450274</v>
@@ -36293,10 +36293,10 @@
         <v>456.2519912427576</v>
       </c>
       <c r="O22" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P22" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q22" t="n">
         <v>175.1042693212594</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J23" t="n">
-        <v>416.5271689693133</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K23" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L23" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M23" t="n">
         <v>24.3677461696152</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>28.8834047681263</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J24" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K24" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L24" t="n">
         <v>16.12199494398476</v>
@@ -36448,13 +36448,13 @@
         <v>18.81360767425508</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O24" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248679</v>
       </c>
       <c r="Q24" t="n">
         <v>555.679072360248</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.85529306948183</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K25" t="n">
-        <v>284.7660952807855</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L25" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M25" t="n">
         <v>473.8830680450274</v>
       </c>
       <c r="N25" t="n">
-        <v>456.2519912427579</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O25" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P25" t="n">
         <v>358.5459031335258</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J26" t="n">
         <v>451.4295881567574</v>
@@ -36600,16 +36600,16 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L26" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961566</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N26" t="n">
         <v>24.76204177833415</v>
       </c>
       <c r="O26" t="n">
-        <v>978.5601459781387</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P26" t="n">
         <v>856.6327174106605</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>28.88340476812618</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J27" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0422563676816</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425485</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775621</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O27" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184062</v>
+        <v>551.2310439248679</v>
       </c>
       <c r="Q27" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R27" t="n">
-        <v>122.9664406999609</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K28" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L28" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M28" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N28" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O28" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P28" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q28" t="n">
         <v>175.1042693212594</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J29" t="n">
         <v>451.4295881567574</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K30" t="n">
-        <v>699.5995866973582</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L30" t="n">
-        <v>338.0846405951261</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
         <v>18.81360767425508</v>
@@ -36934,7 +36934,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R30" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K31" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L31" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M31" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N31" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O31" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P31" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q31" t="n">
         <v>175.1042693212594</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J32" t="n">
         <v>451.4295881567574</v>
@@ -37074,25 +37074,25 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L32" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M32" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N32" t="n">
         <v>24.76204177833415</v>
       </c>
       <c r="O32" t="n">
-        <v>532.7066262822814</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P32" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K33" t="n">
-        <v>699.5995866973582</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L33" t="n">
         <v>16.12199494398476</v>
@@ -37159,7 +37159,7 @@
         <v>18.81360767425508</v>
       </c>
       <c r="N33" t="n">
-        <v>887.4751416521048</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O33" t="n">
         <v>17.66629350017865</v>
@@ -37168,10 +37168,10 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R33" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K34" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L34" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M34" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N34" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O34" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P34" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q34" t="n">
         <v>175.1042693212594</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K35" t="n">
-        <v>17.6527514430429</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L35" t="n">
-        <v>1107.818956959326</v>
+        <v>894.2618219736557</v>
       </c>
       <c r="M35" t="n">
         <v>1193.10293325098</v>
       </c>
       <c r="N35" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O35" t="n">
-        <v>678.0338949435427</v>
+        <v>23.38209388244468</v>
       </c>
       <c r="P35" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465378</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M36" t="n">
-        <v>1229.646773424255</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N36" t="n">
         <v>19.31154788775575</v>
       </c>
       <c r="O36" t="n">
-        <v>362.6063377472321</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P36" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R36" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K37" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L37" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M37" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N37" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O37" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P37" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q37" t="n">
         <v>175.1042693212594</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L38" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M38" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N38" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O38" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P38" t="n">
-        <v>350.3413555188681</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R38" t="n">
         <v>179.5800419666912</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>28.8834047681263</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J39" t="n">
         <v>334.8518195103205</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>91.85529306948166</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K40" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L40" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M40" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N40" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O40" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P40" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q40" t="n">
         <v>175.1042693212594</v>
@@ -37776,22 +37776,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L41" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771882</v>
       </c>
       <c r="M41" t="n">
-        <v>134.7925956434353</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N41" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O41" t="n">
         <v>1013.462565165582</v>
@@ -37861,7 +37861,7 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L42" t="n">
         <v>16.12199494398476</v>
@@ -37870,13 +37870,13 @@
         <v>18.81360767425508</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O42" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248679</v>
       </c>
       <c r="Q42" t="n">
         <v>555.679072360248</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>91.85529306948848</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K43" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L43" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M43" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N43" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O43" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P43" t="n">
         <v>358.5459031335258</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.937517176434275</v>
+        <v>4.93751717643429</v>
       </c>
       <c r="J44" t="n">
         <v>451.4295881567574</v>
@@ -38022,25 +38022,25 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M44" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N44" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O44" t="n">
-        <v>481.5237806422956</v>
+        <v>978.5601459781378</v>
       </c>
       <c r="P44" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>91.85529306948169</v>
+        <v>91.85529306948172</v>
       </c>
       <c r="K46" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L46" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M46" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N46" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O46" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P46" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q46" t="n">
         <v>175.1042693212594</v>
